--- a/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
+++ b/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64111BF9-8133-490E-B818-F10F89127557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A5E9-16EE-40CE-A308-AF90F9034029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,22 +467,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -499,6 +490,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +525,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1384097" cy="744563"/>
@@ -569,6 +572,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -719,6 +723,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="2400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1015,7 +1020,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,25 +1064,27 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1099,9 +1106,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1110,9 +1119,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1137,7 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K9">
@@ -1140,7 +1151,7 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="K10">
@@ -1154,7 +1165,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="K11">
@@ -1162,32 +1173,38 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J12" s="14"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="15" t="s">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="15">
         <v>10</v>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="23" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="12">
         <v>5</v>
       </c>
@@ -1197,21 +1214,21 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1220,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>18</v>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
@@ -1238,55 +1255,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J20" s="20" t="s">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="22" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="18" t="s">
         <v>42</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="15"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="6">
@@ -1294,7 +1301,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="20" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="6">
@@ -1302,24 +1309,29 @@
         <v>-1.7108820799094284</v>
       </c>
     </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="21" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L22:L23"/>

--- a/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
+++ b/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A5E9-16EE-40CE-A308-AF90F9034029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57589088-DAA0-4D18-9944-266D0DA8473B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>La prueba t sirve para comparar 2 promedios:</t>
   </si>
@@ -311,12 +311,15 @@
   <si>
     <t>(a partir de aquí es confuso...)</t>
   </si>
+  <si>
+    <t>Se hace con una muestra menor o igual a 30 elementos ya que esa cantidad siempre sigue una distribución normal.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +408,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,6 +501,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,8 +513,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +543,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1384097" cy="744563"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -681,7 +695,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1017,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,27 +1078,27 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1106,11 +1120,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1119,11 +1133,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1179,13 +1193,13 @@
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>36</v>
       </c>
       <c r="K13" s="15">
         <v>10</v>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="L13" s="24" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
@@ -1200,11 +1214,11 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="12">
         <v>5</v>
       </c>
@@ -1267,13 +1281,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="23" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="23" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
@@ -1283,11 +1297,11 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="22"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="12">
         <v>2</v>
       </c>
@@ -1327,16 +1341,39 @@
         <v>46</v>
       </c>
     </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J3:N4"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="J3:N4"/>
-    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
+++ b/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57589088-DAA0-4D18-9944-266D0DA8473B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE5834-0CE8-4ED3-A1C8-75A8ED771906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>La prueba t sirve para comparar 2 promedios:</t>
   </si>
@@ -313,6 +313,24 @@
   </si>
   <si>
     <t>Se hace con una muestra menor o igual a 30 elementos ya que esa cantidad siempre sigue una distribución normal.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MEDIA P</t>
+  </si>
+  <si>
+    <t>MEDIA M</t>
+  </si>
+  <si>
+    <t>DESV</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -501,20 +519,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,15 +1049,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1078,27 +1099,27 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1119,12 +1140,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1132,22 +1153,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1178,14 @@
       <c r="K9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1171,8 +1198,14 @@
       <c r="K10">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1185,11 +1218,23 @@
       <c r="K11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1244,7 @@
       <c r="K13" s="15">
         <v>10</v>
       </c>
-      <c r="L13" s="24" t="str">
+      <c r="L13" s="26" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
@@ -1207,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1218,12 +1263,23 @@
       <c r="K14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14">
+        <f>P12</f>
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <f>P14/P15</f>
+        <v>12.909944487358056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1231,8 +1287,12 @@
         <v>16</v>
       </c>
       <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f>SQRT(P9)</f>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1314,19 @@
         <v>18</v>
       </c>
       <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17">
+        <f>P11-P10</f>
+        <v>-10</v>
+      </c>
+      <c r="Q17">
+        <f>P17/P18</f>
+        <v>-0.7745966692414834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1268,8 +1339,12 @@
       <c r="L18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <f>Q14</f>
+        <v>12.909944487358056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1279,8 +1354,21 @@
       <c r="J20" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20">
+        <f>_xlfn.T.DIST(1.3,20,TRUE)</f>
+        <v>0.89580775224330667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f>_xlfn.T.DIST(2.5,20,TRUE)</f>
+        <v>0.98938322728043382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J22" s="23" t="s">
         <v>40</v>
       </c>
@@ -1295,8 +1383,12 @@
         <v>42</v>
       </c>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f>P21-P20</f>
+        <v>9.3575475037127154E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="23"/>
       <c r="K23" s="12" t="s">
         <v>20</v>
@@ -1306,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J25" s="20" t="s">
         <v>40</v>
       </c>
@@ -1314,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="20" t="s">
         <v>43</v>
       </c>
@@ -1323,7 +1415,7 @@
         <v>-1.7108820799094284</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1331,37 +1423,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J29" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
+++ b/P&E/PDF/Inferencial/Clase 10 (Prueba t de Student).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE5834-0CE8-4ED3-A1C8-75A8ED771906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC7DD9-FD6B-4485-9E82-DF6F628A7359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>La prueba t sirve para comparar 2 promedios:</t>
   </si>
@@ -332,12 +332,21 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t>Así se calcula la varianza &gt;</t>
+  </si>
+  <si>
+    <t>Varianza &gt;</t>
+  </si>
+  <si>
+    <t>&lt; Desviación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +443,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,6 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,14 +1067,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1454,6 +1473,126 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <f>J33-15</f>
+        <v>-5</v>
+      </c>
+      <c r="L33">
+        <f>K33^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K38" si="0">J34-15</f>
+        <v>-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L38" si="1">K34^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I39" s="27">
+        <f>COUNT(J33:J38)</f>
+        <v>6</v>
+      </c>
+      <c r="J39" s="27">
+        <f>SUM(J33:J38)</f>
+        <v>90</v>
+      </c>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="17">
+        <f>SUM(L33:L38)/6</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="M40" s="17">
+        <f>SQRT(L40)</f>
+        <v>3.415650255319866</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L41" s="8">
+        <f>_xlfn.VAR.P(J33:J38)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="M41" s="8">
+        <f>_xlfn.STDEV.P(J33:J38)</f>
+        <v>3.415650255319866</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
